--- a/Base/Teams/Bengals/Players Data.xlsx
+++ b/Base/Teams/Bengals/Players Data.xlsx
@@ -1,33 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Teams/Bengals/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_916EA9D8FA69415AA1913937F5EA457741B53B5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D299F796-8F44-468E-923F-87B0F9805C6E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -112,8 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,14 +159,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -230,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,27 +237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,24 +271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,14 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -542,16 +481,16 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -571,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -579,19 +518,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -599,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <v>18</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -611,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -631,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -651,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -671,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -697,16 +636,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -737,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -755,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -763,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -781,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -807,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -815,16 +752,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -833,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -841,25 +778,25 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -867,13 +804,13 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>14</v>
@@ -885,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -911,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -937,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -963,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -971,25 +908,25 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>

--- a/Base/Teams/Bengals/Players Data.xlsx
+++ b/Base/Teams/Bengals/Players Data.xlsx
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -700,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -712,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -752,16 +752,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -778,16 +778,16 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -804,22 +804,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -908,16 +908,16 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
         <v>7</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -934,10 +934,10 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>1</v>

--- a/Base/Teams/Bengals/Players Data.xlsx
+++ b/Base/Teams/Bengals/Players Data.xlsx
@@ -478,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -700,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -752,16 +752,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -778,10 +778,10 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>27</v>
@@ -804,22 +804,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>15</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -908,10 +908,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -934,10 +934,10 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>1</v>

--- a/Base/Teams/Bengals/Players Data.xlsx
+++ b/Base/Teams/Bengals/Players Data.xlsx
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -518,13 +518,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -558,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2">
         <v>32</v>
       </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -700,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -752,16 +752,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -778,16 +778,16 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -804,16 +804,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -908,10 +908,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -934,10 +934,10 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>1</v>

--- a/Base/Teams/Bengals/Players Data.xlsx
+++ b/Base/Teams/Bengals/Players Data.xlsx
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D4">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -674,22 +674,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
         <v>6</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -752,10 +752,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>19</v>
@@ -764,10 +764,10 @@
         <v>11</v>
       </c>
       <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
         <v>6</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -778,19 +778,19 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -804,16 +804,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -908,22 +908,22 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
       <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/Base/Teams/Bengals/Players Data.xlsx
+++ b/Base/Teams/Bengals/Players Data.xlsx
@@ -481,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -558,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -700,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -752,10 +752,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>19</v>
@@ -778,16 +778,16 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -804,16 +804,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -908,22 +908,22 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/Base/Teams/Bengals/Players Data.xlsx
+++ b/Base/Teams/Bengals/Players Data.xlsx
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -700,22 +700,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -752,10 +752,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>19</v>
@@ -764,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -778,19 +778,19 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D6">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -804,22 +804,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -908,7 +908,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>53</v>
@@ -934,10 +934,10 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
